--- a/dumps/Stocks/Aurobindo Pharma Ltd.xlsx
+++ b/dumps/Stocks/Aurobindo Pharma Ltd.xlsx
@@ -721,7 +721,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1025"/>
+  <dimension ref="A1:AP1026"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="66">
       <c r="A5" s="77" t="n">
-        <v>45959</v>
+        <v>46044</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1087,18 +1087,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1106.2</v>
+        <v>1142.3</v>
       </c>
       <c r="F5" t="n">
-        <v>5558.65</v>
+        <v>5740.05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>27.65</v>
+        <v>28.55</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1106,8 +1106,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="66">
-      <c r="A6" s="64" t="n">
-        <v>46044</v>
+      <c r="A6" s="77" t="n">
+        <v>45959</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1120,24 +1120,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1142.3</v>
+        <v>1106.2</v>
       </c>
       <c r="F6" t="n">
-        <v>4601.61</v>
+        <v>5558.65</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>4.58</v>
-      </c>
       <c r="I6" t="n">
-        <v>27.83</v>
+        <v>27.65</v>
+      </c>
+      <c r="J6">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="66">
@@ -1155,13 +1156,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>1142.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1150.38</v>
+        <v>4601.61</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1169,15 +1170,15 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.14</v>
+        <v>4.58</v>
       </c>
       <c r="I7" t="n">
-        <v>6.94</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="66">
       <c r="A8" s="64" t="n">
-        <v>46034</v>
+        <v>46044</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1190,13 +1191,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1187.9</v>
+        <v>1142.3</v>
       </c>
       <c r="F8" t="n">
-        <v>5981.6</v>
+        <v>1150.38</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1204,15 +1205,15 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.95</v>
+        <v>1.14</v>
       </c>
       <c r="I8" t="n">
-        <v>36.15</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="66">
       <c r="A9" s="64" t="n">
-        <v>46007</v>
+        <v>46034</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1228,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>1179</v>
+        <v>1187.9</v>
       </c>
       <c r="F9" t="n">
-        <v>5936.83</v>
+        <v>5981.6</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1239,15 +1240,15 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.88</v>
+        <v>5.95</v>
       </c>
       <c r="I9" t="n">
-        <v>35.95</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="66">
       <c r="A10" s="64" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1263,10 +1264,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>1175.6</v>
+        <v>1179</v>
       </c>
       <c r="F10" t="n">
-        <v>5919.71</v>
+        <v>5936.83</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1274,19 +1275,19 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="I10" t="n">
-        <v>35.81</v>
+        <v>35.95</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="66">
       <c r="A11" s="64" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1298,10 +1299,10 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>1219</v>
+        <v>1175.6</v>
       </c>
       <c r="F11" t="n">
-        <v>6138.29</v>
+        <v>5919.71</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1309,15 +1310,15 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="I11" t="n">
-        <v>37.22</v>
+        <v>35.81</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="66">
       <c r="A12" s="64" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1333,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>1214.75</v>
+        <v>1219</v>
       </c>
       <c r="F12" t="n">
-        <v>6116.81</v>
+        <v>6138.29</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1347,16 +1348,16 @@
         <v>6.07</v>
       </c>
       <c r="I12" t="n">
-        <v>36.99</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="66">
       <c r="A13" s="64" t="n">
-        <v>45959</v>
+        <v>45982</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1365,13 +1366,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>1106.2</v>
+        <v>1214.75</v>
       </c>
       <c r="F13" t="n">
-        <v>4456.12</v>
+        <v>6116.81</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1379,10 +1380,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4.41</v>
+        <v>6.07</v>
       </c>
       <c r="I13" t="n">
-        <v>26.91</v>
+        <v>36.99</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="66">
@@ -1400,13 +1401,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>1106.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1114.04</v>
+        <v>4456.12</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1414,15 +1415,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.11</v>
+        <v>4.41</v>
       </c>
       <c r="I14" t="n">
-        <v>6.73</v>
+        <v>26.91</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="66">
       <c r="A15" s="64" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1435,13 +1436,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1090</v>
+        <v>1106.2</v>
       </c>
       <c r="F15" t="n">
-        <v>5488.66</v>
+        <v>1114.04</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1449,19 +1450,19 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5.46</v>
+        <v>1.11</v>
       </c>
       <c r="I15" t="n">
-        <v>33.2</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="66">
       <c r="A16" s="64" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1470,13 +1471,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>1097.15</v>
+        <v>1090</v>
       </c>
       <c r="F16" t="n">
-        <v>4419.78</v>
+        <v>5488.66</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1484,10 +1485,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4.39</v>
+        <v>5.46</v>
       </c>
       <c r="I16" t="n">
-        <v>26.79</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="66">
@@ -1505,13 +1506,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>1097</v>
+        <v>1097.15</v>
       </c>
       <c r="F17" t="n">
-        <v>1104.77</v>
+        <v>4419.78</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1519,19 +1520,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.1</v>
+        <v>4.39</v>
       </c>
       <c r="I17" t="n">
-        <v>6.67</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="66">
       <c r="A18" s="64" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1540,13 +1541,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1100.5</v>
+        <v>1097</v>
       </c>
       <c r="F18" t="n">
-        <v>5541.51</v>
+        <v>1104.77</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1554,19 +1555,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5.48</v>
+        <v>1.1</v>
       </c>
       <c r="I18" t="n">
-        <v>33.53</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="66">
       <c r="A19" s="64" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1578,10 +1579,10 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>1107.7</v>
+        <v>1100.5</v>
       </c>
       <c r="F19" t="n">
-        <v>5577.81</v>
+        <v>5541.51</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1589,19 +1590,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5.53</v>
+        <v>5.48</v>
       </c>
       <c r="I19" t="n">
-        <v>33.78</v>
+        <v>33.53</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="66">
       <c r="A20" s="64" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1610,13 +1611,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.5</v>
+        <v>1107.7</v>
       </c>
       <c r="F20" t="n">
-        <v>7786.29</v>
+        <v>5577.81</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1624,10 +1625,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7.75</v>
+        <v>5.53</v>
       </c>
       <c r="I20" t="n">
-        <v>47.04</v>
+        <v>33.78</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="66">
@@ -1645,13 +1646,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
         <v>1104.5</v>
       </c>
       <c r="F21" t="n">
-        <v>1112.33</v>
+        <v>7786.29</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1659,19 +1660,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.11</v>
+        <v>7.75</v>
       </c>
       <c r="I21" t="n">
-        <v>6.72</v>
+        <v>47.04</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="66">
       <c r="A22" s="64" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1680,13 +1681,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1106.4</v>
+        <v>1104.5</v>
       </c>
       <c r="F22" t="n">
-        <v>4456.98</v>
+        <v>1112.33</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1694,10 +1695,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>1.11</v>
       </c>
       <c r="I22" t="n">
-        <v>26.98</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="66">
@@ -1715,13 +1716,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>1106.45</v>
+        <v>1106.4</v>
       </c>
       <c r="F23" t="n">
-        <v>1114.3</v>
+        <v>4456.98</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1729,19 +1730,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.11</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>6.74</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="66">
       <c r="A24" s="64" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1750,13 +1751,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1029.7</v>
+        <v>1106.45</v>
       </c>
       <c r="F24" t="n">
-        <v>2074.04</v>
+        <v>1114.3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1764,120 +1765,54 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.06</v>
+        <v>1.11</v>
       </c>
       <c r="I24" t="n">
-        <v>12.58</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="66">
-      <c r="A25" s="25" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B25" s="26" t="inlineStr">
+      <c r="A25" s="64" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C25" s="26" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D25" s="27" t="n">
-        <v>50</v>
-      </c>
-      <c r="E25" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="G25" s="26" t="inlineStr">
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1029.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2074.04</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 08-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H25" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K25" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="L25" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="M25" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
-        <v/>
-      </c>
-      <c r="N25" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
-        <v/>
-      </c>
-      <c r="O25" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="P25" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="Q25" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
-        <v/>
-      </c>
-      <c r="R25" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="S25" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="T25" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="U25" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
-        <v/>
-      </c>
-      <c r="V25" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="W25" s="33" t="n"/>
-      <c r="X25" s="33" t="n"/>
-      <c r="Y25" s="32">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="Z25" s="33" t="n"/>
-      <c r="AA25" s="33" t="n"/>
-      <c r="AB25" s="34" t="n"/>
-      <c r="AC25" s="29">
-        <f>IF(B16="DIV", F16,"")</f>
-        <v/>
-      </c>
-      <c r="AD25" s="35" t="n"/>
+      <c r="H25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.58</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="66">
       <c r="A26" s="25" t="n">
-        <v>45855</v>
+        <v>45877</v>
       </c>
       <c r="B26" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C26" s="26" t="inlineStr">
@@ -1886,95 +1821,95 @@
         </is>
       </c>
       <c r="D26" s="27" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E26" s="28" t="n">
-        <v>1163.2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="28" t="n">
-        <v>5815.98</v>
+        <v>200</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 08-AUG-2025</t>
         </is>
       </c>
       <c r="H26" s="27" t="n">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="I26" s="27" t="n">
-        <v>35.2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L26" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M26" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N26" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O26" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P26" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R26" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S26" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T26" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U26" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V26" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W26" s="33" t="n"/>
       <c r="X26" s="33" t="n"/>
       <c r="Y26" s="32">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z26" s="33" t="n"/>
       <c r="AA26" s="33" t="n"/>
       <c r="AB26" s="34" t="n"/>
       <c r="AC26" s="29">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD26" s="35" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="66">
       <c r="A27" s="25" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B27" s="26" t="inlineStr">
         <is>
@@ -1987,13 +1922,13 @@
         </is>
       </c>
       <c r="D27" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E27" s="28" t="n">
-        <v>1179.6</v>
+        <v>1163.2</v>
       </c>
       <c r="F27" s="28" t="n">
-        <v>11795.99</v>
+        <v>5815.98</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -2001,81 +1936,81 @@
         </is>
       </c>
       <c r="H27" s="27" t="n">
-        <v>11.69</v>
+        <v>5.78</v>
       </c>
       <c r="I27" s="27" t="n">
-        <v>71.3</v>
+        <v>35.2</v>
       </c>
       <c r="J27" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L27" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M27" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N27" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O27" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P27" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R27" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S27" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T27" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U27" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V27" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W27" s="33" t="n"/>
       <c r="X27" s="33" t="n"/>
       <c r="Y27" s="32">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z27" s="33" t="n"/>
       <c r="AA27" s="33" t="n"/>
       <c r="AB27" s="34" t="n"/>
       <c r="AC27" s="29">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD27" s="35" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="66">
       <c r="A28" s="25" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B28" s="26" t="inlineStr">
         <is>
@@ -2088,13 +2023,13 @@
         </is>
       </c>
       <c r="D28" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E28" s="28" t="n">
-        <v>1151</v>
+        <v>1179.6</v>
       </c>
       <c r="F28" s="28" t="n">
-        <v>5755.02</v>
+        <v>11795.99</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -2102,81 +2037,81 @@
         </is>
       </c>
       <c r="H28" s="27" t="n">
-        <v>5.75</v>
+        <v>11.69</v>
       </c>
       <c r="I28" s="27" t="n">
-        <v>34.77</v>
+        <v>71.3</v>
       </c>
       <c r="J28" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L28" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M28" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N28" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O28" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P28" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R28" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S28" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T28" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U28" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V28" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W28" s="33" t="n"/>
       <c r="X28" s="33" t="n"/>
       <c r="Y28" s="32">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z28" s="33" t="n"/>
       <c r="AA28" s="33" t="n"/>
       <c r="AB28" s="34" t="n"/>
       <c r="AC28" s="29">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD28" s="35" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="66">
       <c r="A29" s="25" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B29" s="26" t="inlineStr">
         <is>
@@ -2192,10 +2127,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="28" t="n">
-        <v>1144.16</v>
+        <v>1151</v>
       </c>
       <c r="F29" s="28" t="n">
-        <v>5720.78</v>
+        <v>5755.02</v>
       </c>
       <c r="G29" s="26" t="inlineStr">
         <is>
@@ -2203,182 +2138,182 @@
         </is>
       </c>
       <c r="H29" s="27" t="n">
-        <v>5.68</v>
+        <v>5.75</v>
       </c>
       <c r="I29" s="27" t="n">
-        <v>34.6</v>
+        <v>34.77</v>
       </c>
       <c r="J29" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L29" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M29" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N29" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O29" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P29" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R29" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S29" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T29" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U29" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V29" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W29" s="33" t="n"/>
       <c r="X29" s="33" t="n"/>
       <c r="Y29" s="32">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z29" s="33" t="n"/>
       <c r="AA29" s="33" t="n"/>
       <c r="AB29" s="34" t="n"/>
       <c r="AC29" s="29">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD29" s="35" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="66">
-      <c r="A30" s="36" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B30" s="37" t="inlineStr">
+      <c r="A30" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B30" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C30" s="37" t="inlineStr">
+      <c r="C30" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D30" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="39" t="n">
-        <v>1110.16</v>
-      </c>
-      <c r="F30" s="39" t="n">
-        <v>3330.49</v>
-      </c>
-      <c r="G30" s="37" t="inlineStr">
+      <c r="D30" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="28" t="n">
+        <v>1144.16</v>
+      </c>
+      <c r="F30" s="28" t="n">
+        <v>5720.78</v>
+      </c>
+      <c r="G30" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H30" s="38" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="I30" s="38" t="n">
-        <v>20.12</v>
+      <c r="H30" s="27" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="I30" s="27" t="n">
+        <v>34.6</v>
       </c>
       <c r="J30" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L30" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M30" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N30" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O30" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P30" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R30" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S30" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T30" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U30" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V30" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W30" s="33" t="n"/>
       <c r="X30" s="33" t="n"/>
       <c r="Y30" s="32">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z30" s="33" t="n"/>
       <c r="AA30" s="33" t="n"/>
       <c r="AB30" s="34" t="n"/>
       <c r="AC30" s="29">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD30" s="35" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="66">
       <c r="A31" s="36" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B31" s="37" t="inlineStr">
         <is>
@@ -2391,13 +2326,13 @@
         </is>
       </c>
       <c r="D31" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>1069.33</v>
+        <v>1110.16</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>2138.66</v>
+        <v>3330.49</v>
       </c>
       <c r="G31" s="37" t="inlineStr">
         <is>
@@ -2405,81 +2340,81 @@
         </is>
       </c>
       <c r="H31" s="38" t="n">
-        <v>2.11</v>
+        <v>3.32</v>
       </c>
       <c r="I31" s="38" t="n">
-        <v>12.95</v>
+        <v>20.12</v>
       </c>
       <c r="J31" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L31" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M31" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N31" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O31" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P31" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R31" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S31" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T31" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U31" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V31" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W31" s="33" t="n"/>
       <c r="X31" s="33" t="n"/>
       <c r="Y31" s="32">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z31" s="33" t="n"/>
       <c r="AA31" s="33" t="n"/>
       <c r="AB31" s="34" t="n"/>
       <c r="AC31" s="29">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD31" s="35" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="66">
       <c r="A32" s="36" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B32" s="37" t="inlineStr">
         <is>
@@ -2492,13 +2427,13 @@
         </is>
       </c>
       <c r="D32" s="38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>1119.78</v>
+        <v>1069.33</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>5598.9</v>
+        <v>2138.66</v>
       </c>
       <c r="G32" s="37" t="inlineStr">
         <is>
@@ -2506,81 +2441,81 @@
         </is>
       </c>
       <c r="H32" s="38" t="n">
-        <v>5.55</v>
+        <v>2.11</v>
       </c>
       <c r="I32" s="38" t="n">
-        <v>33.85</v>
+        <v>12.95</v>
       </c>
       <c r="J32" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L32" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M32" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N32" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O32" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P32" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R32" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S32" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T32" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U32" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V32" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W32" s="33" t="n"/>
       <c r="X32" s="33" t="n"/>
       <c r="Y32" s="32">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z32" s="33" t="n"/>
       <c r="AA32" s="33" t="n"/>
       <c r="AB32" s="34" t="n"/>
       <c r="AC32" s="29">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD32" s="35" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="66">
       <c r="A33" s="36" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B33" s="37" t="inlineStr">
         <is>
@@ -2596,10 +2531,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>1139.37</v>
+        <v>1119.78</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>5696.87</v>
+        <v>5598.9</v>
       </c>
       <c r="G33" s="37" t="inlineStr">
         <is>
@@ -2607,80 +2542,81 @@
         </is>
       </c>
       <c r="H33" s="38" t="n">
-        <v>5.65</v>
+        <v>5.55</v>
       </c>
       <c r="I33" s="38" t="n">
-        <v>34.47</v>
+        <v>33.85</v>
       </c>
       <c r="J33" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L33" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M33" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N33" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O33" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P33" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R33" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S33" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T33" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U33" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V33" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W33" s="33" t="n"/>
       <c r="X33" s="33" t="n"/>
-      <c r="Y33" s="32" t="e">
-        <v>#REF!</v>
+      <c r="Y33" s="32">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <v/>
       </c>
       <c r="Z33" s="33" t="n"/>
       <c r="AA33" s="33" t="n"/>
       <c r="AB33" s="34" t="n"/>
       <c r="AC33" s="29">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD33" s="35" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="66">
       <c r="A34" s="36" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B34" s="37" t="inlineStr">
         <is>
@@ -2693,13 +2629,13 @@
         </is>
       </c>
       <c r="D34" s="38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>1167.82</v>
+        <v>1139.37</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>2335.64</v>
+        <v>5696.87</v>
       </c>
       <c r="G34" s="37" t="inlineStr">
         <is>
@@ -2707,10 +2643,10 @@
         </is>
       </c>
       <c r="H34" s="38" t="n">
-        <v>2.32</v>
+        <v>5.65</v>
       </c>
       <c r="I34" s="38" t="n">
-        <v>14.12</v>
+        <v>34.47</v>
       </c>
       <c r="J34" s="29">
         <f>Index!$C$2</f>
@@ -2780,7 +2716,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" s="66">
       <c r="A35" s="36" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B35" s="37" t="inlineStr">
         <is>
@@ -2793,13 +2729,13 @@
         </is>
       </c>
       <c r="D35" s="38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>1198.63</v>
+        <v>1167.82</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>9589.040000000001</v>
+        <v>2335.64</v>
       </c>
       <c r="G35" s="37" t="inlineStr">
         <is>
@@ -2807,10 +2743,10 @@
         </is>
       </c>
       <c r="H35" s="38" t="n">
-        <v>9.5</v>
+        <v>2.32</v>
       </c>
       <c r="I35" s="38" t="n">
-        <v>57.94</v>
+        <v>14.12</v>
       </c>
       <c r="J35" s="29">
         <f>Index!$C$2</f>
@@ -2880,7 +2816,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1" s="66">
       <c r="A36" s="36" t="n">
-        <v>45110</v>
+        <v>45694</v>
       </c>
       <c r="B36" s="37" t="inlineStr">
         <is>
@@ -2889,24 +2825,28 @@
       </c>
       <c r="C36" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D36" s="38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>713.38</v>
+        <v>1198.63</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>3566.91</v>
-      </c>
-      <c r="G36" s="37" t="n"/>
+        <v>9589.040000000001</v>
+      </c>
+      <c r="G36" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H36" s="38" t="n">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="I36" s="38" t="n">
-        <v>21.34</v>
+        <v>57.94</v>
       </c>
       <c r="J36" s="29">
         <f>Index!$C$2</f>
@@ -2976,7 +2916,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1" s="66">
       <c r="A37" s="36" t="n">
-        <v>45082</v>
+        <v>45110</v>
       </c>
       <c r="B37" s="37" t="inlineStr">
         <is>
@@ -2989,24 +2929,20 @@
         </is>
       </c>
       <c r="D37" s="38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>657.8200000000001</v>
+        <v>713.38</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>657.8200000000001</v>
-      </c>
-      <c r="G37" s="37" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+        <v>3566.91</v>
+      </c>
+      <c r="G37" s="37" t="n"/>
       <c r="H37" s="38" t="n">
-        <v>0.7</v>
+        <v>3.75</v>
       </c>
       <c r="I37" s="38" t="n">
-        <v>3.93</v>
+        <v>21.34</v>
       </c>
       <c r="J37" s="29">
         <f>Index!$C$2</f>
@@ -3089,13 +3025,13 @@
         </is>
       </c>
       <c r="D38" s="38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>657.62</v>
+        <v>657.8200000000001</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>5918.55</v>
+        <v>657.8200000000001</v>
       </c>
       <c r="G38" s="37" t="inlineStr">
         <is>
@@ -3103,10 +3039,10 @@
         </is>
       </c>
       <c r="H38" s="38" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="I38" s="38" t="n">
-        <v>35.4</v>
+        <v>3.93</v>
       </c>
       <c r="J38" s="29">
         <f>Index!$C$2</f>
@@ -3176,7 +3112,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1" s="66">
       <c r="A39" s="36" t="n">
-        <v>45034</v>
+        <v>45082</v>
       </c>
       <c r="B39" s="37" t="inlineStr">
         <is>
@@ -3185,103 +3121,94 @@
       </c>
       <c r="C39" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D39" s="38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>580.04</v>
+        <v>657.62</v>
       </c>
       <c r="F39" s="39" t="n">
-        <v>580.04</v>
-      </c>
-      <c r="G39" s="37" t="n"/>
+        <v>5918.55</v>
+      </c>
+      <c r="G39" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H39" s="38" t="n">
-        <v>0.58</v>
+        <v>6.3</v>
       </c>
       <c r="I39" s="38" t="n">
-        <v>3.51</v>
+        <v>35.4</v>
       </c>
       <c r="J39" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K39" s="33" t="n"/>
-      <c r="L39" s="33">
+      <c r="K39" s="30">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="L39" s="29">
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="29">
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
-      <c r="N39" s="41">
+      <c r="N39" s="31">
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
-      <c r="O39" s="40" t="n"/>
-      <c r="P39" s="33">
+      <c r="O39" s="30">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="P39" s="29">
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
-      <c r="Q39" s="40">
+      <c r="Q39" s="29">
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
-      <c r="R39" s="40">
+      <c r="R39" s="29">
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="S39" s="40" t="n"/>
-      <c r="T39" s="40">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="U39" s="40">
+      <c r="S39" s="32">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="T39" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="U39" s="33">
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
-      <c r="V39" s="40">
+      <c r="V39" s="33">
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W39" s="39" t="n">
-        <v>713.38</v>
-      </c>
-      <c r="X39" s="36" t="n">
-        <v>45110</v>
-      </c>
+      <c r="W39" s="33" t="n"/>
+      <c r="X39" s="33" t="n"/>
       <c r="Y39" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z39" s="42" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA39" s="42" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB39" s="43" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="Z39" s="33" t="n"/>
+      <c r="AA39" s="33" t="n"/>
+      <c r="AB39" s="34" t="n"/>
       <c r="AC39" s="29">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD39" s="35" t="n"/>
-      <c r="AE39" s="44" t="n"/>
-      <c r="AF39" s="44" t="n"/>
-      <c r="AG39" s="44" t="n"/>
-      <c r="AH39" s="44" t="n"/>
-      <c r="AI39" s="44" t="n"/>
-      <c r="AJ39" s="44" t="n"/>
-      <c r="AK39" s="44" t="n"/>
-      <c r="AL39" s="44" t="n"/>
-      <c r="AM39" s="44" t="n"/>
-      <c r="AN39" s="44" t="n"/>
-      <c r="AO39" s="44" t="n"/>
-      <c r="AP39" s="44" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="66">
       <c r="A40" s="36" t="n">
@@ -3298,20 +3225,20 @@
         </is>
       </c>
       <c r="D40" s="38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" s="39" t="n">
         <v>580.04</v>
       </c>
       <c r="F40" s="39" t="n">
-        <v>2320.17</v>
+        <v>580.04</v>
       </c>
       <c r="G40" s="37" t="n"/>
       <c r="H40" s="38" t="n">
-        <v>2.3</v>
+        <v>0.58</v>
       </c>
       <c r="I40" s="38" t="n">
-        <v>14.07</v>
+        <v>3.51</v>
       </c>
       <c r="J40" s="29">
         <f>Index!$C$2</f>
@@ -3394,11 +3321,11 @@
     </row>
     <row r="41" ht="15.75" customHeight="1" s="66">
       <c r="A41" s="36" t="n">
-        <v>44974</v>
+        <v>45034</v>
       </c>
       <c r="B41" s="37" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C41" s="37" t="inlineStr">
@@ -3407,24 +3334,20 @@
         </is>
       </c>
       <c r="D41" s="38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>3</v>
+        <v>580.04</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>30</v>
-      </c>
-      <c r="G41" s="37" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.3.0000/- per share on 17-FEB-2023</t>
-        </is>
-      </c>
+        <v>2320.17</v>
+      </c>
+      <c r="G41" s="37" t="n"/>
       <c r="H41" s="38" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I41" s="38" t="n">
-        <v>0</v>
+        <v>14.07</v>
       </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
@@ -3469,27 +3392,49 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W41" s="33" t="n"/>
-      <c r="X41" s="33" t="n"/>
+      <c r="W41" s="39" t="n">
+        <v>713.38</v>
+      </c>
+      <c r="X41" s="36" t="n">
+        <v>45110</v>
+      </c>
       <c r="Y41" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z41" s="33" t="n"/>
-      <c r="AA41" s="33" t="n"/>
-      <c r="AB41" s="34" t="n"/>
+      <c r="Z41" s="42" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA41" s="42" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB41" s="43" t="e">
+        <v>#REF!</v>
+      </c>
       <c r="AC41" s="29">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD41" s="35" t="n"/>
+      <c r="AE41" s="44" t="n"/>
+      <c r="AF41" s="44" t="n"/>
+      <c r="AG41" s="44" t="n"/>
+      <c r="AH41" s="44" t="n"/>
+      <c r="AI41" s="44" t="n"/>
+      <c r="AJ41" s="44" t="n"/>
+      <c r="AK41" s="44" t="n"/>
+      <c r="AL41" s="44" t="n"/>
+      <c r="AM41" s="44" t="n"/>
+      <c r="AN41" s="44" t="n"/>
+      <c r="AO41" s="44" t="n"/>
+      <c r="AP41" s="44" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="66">
       <c r="A42" s="36" t="n">
-        <v>44950</v>
+        <v>44974</v>
       </c>
       <c r="B42" s="37" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C42" s="37" t="inlineStr">
@@ -3498,24 +3443,24 @@
         </is>
       </c>
       <c r="D42" s="38" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>439.83</v>
+        <v>3</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>879.66</v>
+        <v>30</v>
       </c>
       <c r="G42" s="37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Dividend of Rs.3.0000/- per share on 17-FEB-2023</t>
         </is>
       </c>
       <c r="H42" s="38" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="I42" s="38" t="n">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="J42" s="29">
         <f>Index!$C$2</f>
@@ -3560,41 +3505,19 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W42" s="39" t="n">
-        <v>657.8200000000001</v>
-      </c>
-      <c r="X42" s="36" t="n">
-        <v>45082</v>
-      </c>
+      <c r="W42" s="33" t="n"/>
+      <c r="X42" s="33" t="n"/>
       <c r="Y42" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z42" s="42" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA42" s="42" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB42" s="43" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="Z42" s="33" t="n"/>
+      <c r="AA42" s="33" t="n"/>
+      <c r="AB42" s="34" t="n"/>
       <c r="AC42" s="29">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD42" s="35" t="n"/>
-      <c r="AE42" s="44" t="n"/>
-      <c r="AF42" s="44" t="n"/>
-      <c r="AG42" s="44" t="n"/>
-      <c r="AH42" s="44" t="n"/>
-      <c r="AI42" s="44" t="n"/>
-      <c r="AJ42" s="44" t="n"/>
-      <c r="AK42" s="44" t="n"/>
-      <c r="AL42" s="44" t="n"/>
-      <c r="AM42" s="44" t="n"/>
-      <c r="AN42" s="44" t="n"/>
-      <c r="AO42" s="44" t="n"/>
-      <c r="AP42" s="44" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="66">
       <c r="A43" s="36" t="n">
@@ -3611,13 +3534,13 @@
         </is>
       </c>
       <c r="D43" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>439.85</v>
+        <v>439.83</v>
       </c>
       <c r="F43" s="39" t="n">
-        <v>439.85</v>
+        <v>879.66</v>
       </c>
       <c r="G43" s="37" t="inlineStr">
         <is>
@@ -3625,10 +3548,10 @@
         </is>
       </c>
       <c r="H43" s="38" t="n">
-        <v>0.44</v>
+        <v>0.87</v>
       </c>
       <c r="I43" s="38" t="n">
-        <v>2.66</v>
+        <v>5.29</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
@@ -3724,13 +3647,13 @@
         </is>
       </c>
       <c r="D44" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>439.84</v>
+        <v>439.85</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>3078.85</v>
+        <v>439.85</v>
       </c>
       <c r="G44" s="37" t="inlineStr">
         <is>
@@ -3738,10 +3661,10 @@
         </is>
       </c>
       <c r="H44" s="38" t="n">
-        <v>3.05</v>
+        <v>0.44</v>
       </c>
       <c r="I44" s="38" t="n">
-        <v>18.55</v>
+        <v>2.66</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
@@ -3749,41 +3672,41 @@
       </c>
       <c r="K44" s="33" t="n"/>
       <c r="L44" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M44" s="40">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N44" s="41">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O44" s="40" t="n"/>
       <c r="P44" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="40">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R44" s="40">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S44" s="40" t="n"/>
       <c r="T44" s="40">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*SUM(H24:I24)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
         <v/>
       </c>
       <c r="U44" s="40">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V44" s="40">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W44" s="39" t="n">
@@ -3792,21 +3715,20 @@
       <c r="X44" s="36" t="n">
         <v>45082</v>
       </c>
-      <c r="Y44" s="32">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="42" t="n">
-        <v>-197.2</v>
-      </c>
-      <c r="AA44" s="42" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB44" s="43" t="n">
-        <v>50</v>
+      <c r="Y44" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z44" s="42" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA44" s="42" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB44" s="43" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC44" s="29">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD44" s="35" t="n"/>
@@ -3825,7 +3747,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1" s="66">
       <c r="A45" s="36" t="n">
-        <v>44013</v>
+        <v>44950</v>
       </c>
       <c r="B45" s="37" t="inlineStr">
         <is>
@@ -3834,17 +3756,17 @@
       </c>
       <c r="C45" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D45" s="38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>771.01</v>
+        <v>439.84</v>
       </c>
       <c r="F45" s="39" t="n">
-        <v>3855.04</v>
+        <v>3078.85</v>
       </c>
       <c r="G45" s="37" t="inlineStr">
         <is>
@@ -3852,10 +3774,10 @@
         </is>
       </c>
       <c r="H45" s="38" t="n">
-        <v>3.81</v>
+        <v>3.05</v>
       </c>
       <c r="I45" s="38" t="n">
-        <v>23.4</v>
+        <v>18.55</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
@@ -3863,61 +3785,83 @@
       </c>
       <c r="K45" s="33" t="n"/>
       <c r="L45" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M45" s="40">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N45" s="41">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O45" s="40" t="n"/>
       <c r="P45" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="40">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R45" s="40">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S45" s="40" t="n"/>
       <c r="T45" s="40">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*SUM(H25:I25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (J24*D24)-(E24*D24)-(2*SUM(H24:I24)), "")</f>
         <v/>
       </c>
       <c r="U45" s="40">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V45" s="40">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="33" t="n"/>
-      <c r="X45" s="33" t="n"/>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W45" s="39" t="n">
+        <v>657.8200000000001</v>
+      </c>
+      <c r="X45" s="36" t="n">
+        <v>45082</v>
+      </c>
       <c r="Y45" s="32">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="33" t="n"/>
-      <c r="AA45" s="33" t="n"/>
-      <c r="AB45" s="34" t="n"/>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="42" t="n">
+        <v>-197.2</v>
+      </c>
+      <c r="AA45" s="42" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB45" s="43" t="n">
+        <v>50</v>
+      </c>
       <c r="AC45" s="29">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD45" s="35" t="n"/>
+      <c r="AE45" s="44" t="n"/>
+      <c r="AF45" s="44" t="n"/>
+      <c r="AG45" s="44" t="n"/>
+      <c r="AH45" s="44" t="n"/>
+      <c r="AI45" s="44" t="n"/>
+      <c r="AJ45" s="44" t="n"/>
+      <c r="AK45" s="44" t="n"/>
+      <c r="AL45" s="44" t="n"/>
+      <c r="AM45" s="44" t="n"/>
+      <c r="AN45" s="44" t="n"/>
+      <c r="AO45" s="44" t="n"/>
+      <c r="AP45" s="44" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="66">
       <c r="A46" s="36" t="n">
-        <v>43956</v>
+        <v>44013</v>
       </c>
       <c r="B46" s="37" t="inlineStr">
         <is>
@@ -3930,13 +3874,13 @@
         </is>
       </c>
       <c r="D46" s="38" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>659.49</v>
+        <v>771.01</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>13189.8</v>
+        <v>3855.04</v>
       </c>
       <c r="G46" s="37" t="inlineStr">
         <is>
@@ -3944,10 +3888,10 @@
         </is>
       </c>
       <c r="H46" s="38" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="I46" s="38" t="n">
-        <v>66.2</v>
+        <v>23.4</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
@@ -3955,61 +3899,61 @@
       </c>
       <c r="K46" s="33" t="n"/>
       <c r="L46" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M46" s="40">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N46" s="41">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O46" s="40" t="n"/>
       <c r="P46" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="40">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R46" s="40">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S46" s="40" t="n"/>
       <c r="T46" s="40">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*SUM(H26:I26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (J25*D25)-(E25*D25)-(2*SUM(H25:I25)), "")</f>
         <v/>
       </c>
       <c r="U46" s="40">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V46" s="40">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W46" s="33" t="n"/>
       <c r="X46" s="33" t="n"/>
       <c r="Y46" s="32">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z46" s="33" t="n"/>
       <c r="AA46" s="33" t="n"/>
       <c r="AB46" s="34" t="n"/>
       <c r="AC46" s="29">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD46" s="35" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="66">
       <c r="A47" s="36" t="n">
-        <v>43943</v>
+        <v>43956</v>
       </c>
       <c r="B47" s="37" t="inlineStr">
         <is>
@@ -4022,13 +3966,13 @@
         </is>
       </c>
       <c r="D47" s="38" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>664.86</v>
+        <v>659.49</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>33243</v>
+        <v>13189.8</v>
       </c>
       <c r="G47" s="37" t="inlineStr">
         <is>
@@ -4039,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="38" t="n">
-        <v>167</v>
+        <v>66.2</v>
       </c>
       <c r="J47" s="29">
         <f>Index!$C$2</f>
@@ -4047,61 +3991,61 @@
       </c>
       <c r="K47" s="33" t="n"/>
       <c r="L47" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M47" s="40">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N47" s="41">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O47" s="40" t="n"/>
       <c r="P47" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="40">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R47" s="40">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S47" s="40" t="n"/>
       <c r="T47" s="40">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*SUM(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*SUM(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U47" s="40">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V47" s="40">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W47" s="33" t="n"/>
       <c r="X47" s="33" t="n"/>
       <c r="Y47" s="32">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z47" s="33" t="n"/>
       <c r="AA47" s="33" t="n"/>
       <c r="AB47" s="34" t="n"/>
       <c r="AC47" s="29">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD47" s="35" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="66">
       <c r="A48" s="36" t="n">
-        <v>43909</v>
+        <v>43943</v>
       </c>
       <c r="B48" s="37" t="inlineStr">
         <is>
@@ -4110,17 +4054,17 @@
       </c>
       <c r="C48" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D48" s="38" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>357.9</v>
+        <v>664.86</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>1789.5</v>
+        <v>33243</v>
       </c>
       <c r="G48" s="37" t="inlineStr">
         <is>
@@ -4128,10 +4072,10 @@
         </is>
       </c>
       <c r="H48" s="38" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="I48" s="38" t="n">
-        <v>10.77</v>
+        <v>167</v>
       </c>
       <c r="J48" s="29">
         <f>Index!$C$2</f>
@@ -4139,83 +4083,61 @@
       </c>
       <c r="K48" s="33" t="n"/>
       <c r="L48" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M48" s="40">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N48" s="41">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O48" s="40" t="n"/>
       <c r="P48" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="40">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R48" s="40">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S48" s="40" t="n"/>
       <c r="T48" s="40">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*SUM(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*SUM(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U48" s="40">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V48" s="40">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="39" t="n">
-        <v>771.01</v>
-      </c>
-      <c r="X48" s="36" t="n">
-        <v>44013</v>
-      </c>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <v/>
+      </c>
+      <c r="W48" s="33" t="n"/>
+      <c r="X48" s="33" t="n"/>
       <c r="Y48" s="32">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
-        <v/>
-      </c>
-      <c r="Z48" s="42" t="n">
-        <v>-5640.7088</v>
-      </c>
-      <c r="AA48" s="42" t="n">
-        <v>5720.8</v>
-      </c>
-      <c r="AB48" s="43" t="n">
-        <v>5</v>
-      </c>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="Z48" s="33" t="n"/>
+      <c r="AA48" s="33" t="n"/>
+      <c r="AB48" s="34" t="n"/>
       <c r="AC48" s="29">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD48" s="35" t="n"/>
-      <c r="AE48" s="44" t="n"/>
-      <c r="AF48" s="44" t="n"/>
-      <c r="AG48" s="44" t="n"/>
-      <c r="AH48" s="44" t="n"/>
-      <c r="AI48" s="44" t="n"/>
-      <c r="AJ48" s="44" t="n"/>
-      <c r="AK48" s="44" t="n"/>
-      <c r="AL48" s="44" t="n"/>
-      <c r="AM48" s="44" t="n"/>
-      <c r="AN48" s="44" t="n"/>
-      <c r="AO48" s="44" t="n"/>
-      <c r="AP48" s="44" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="66">
       <c r="A49" s="36" t="n">
-        <v>43896</v>
+        <v>43909</v>
       </c>
       <c r="B49" s="37" t="inlineStr">
         <is>
@@ -4231,10 +4153,10 @@
         <v>5</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>518.21</v>
+        <v>357.9</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>2591.05</v>
+        <v>1789.5</v>
       </c>
       <c r="G49" s="37" t="inlineStr">
         <is>
@@ -4242,10 +4164,10 @@
         </is>
       </c>
       <c r="H49" s="38" t="n">
-        <v>2.61</v>
+        <v>1.73</v>
       </c>
       <c r="I49" s="38" t="n">
-        <v>15.44</v>
+        <v>10.77</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
@@ -4253,64 +4175,64 @@
       </c>
       <c r="K49" s="33" t="n"/>
       <c r="L49" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M49" s="40">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N49" s="41">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O49" s="40" t="n"/>
       <c r="P49" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="40">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R49" s="40">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S49" s="40" t="n"/>
       <c r="T49" s="40">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*SUM(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*SUM(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U49" s="40">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V49" s="40">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W49" s="39" t="n">
-        <v>659.49</v>
+        <v>771.01</v>
       </c>
       <c r="X49" s="36" t="n">
-        <v>43956</v>
+        <v>44013</v>
       </c>
       <c r="Y49" s="32">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z49" s="42" t="n">
-        <v>-3283.85328</v>
+        <v>-5640.7088</v>
       </c>
       <c r="AA49" s="42" t="n">
-        <v>3330.48</v>
+        <v>5720.8</v>
       </c>
       <c r="AB49" s="43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC49" s="29">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD49" s="35" t="n"/>
@@ -4329,7 +4251,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" s="66">
       <c r="A50" s="36" t="n">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B50" s="37" t="inlineStr">
         <is>
@@ -4345,10 +4267,10 @@
         <v>5</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>526.62</v>
+        <v>518.21</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>2633.08</v>
+        <v>2591.05</v>
       </c>
       <c r="G50" s="37" t="inlineStr">
         <is>
@@ -4359,7 +4281,7 @@
         <v>2.61</v>
       </c>
       <c r="I50" s="38" t="n">
-        <v>15.72</v>
+        <v>15.44</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
@@ -4367,41 +4289,41 @@
       </c>
       <c r="K50" s="33" t="n"/>
       <c r="L50" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M50" s="40">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N50" s="41">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O50" s="40" t="n"/>
       <c r="P50" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="40">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R50" s="40">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S50" s="40" t="n"/>
       <c r="T50" s="40">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*SUM(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*SUM(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U50" s="40">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V50" s="40">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W50" s="39" t="n">
@@ -4411,20 +4333,20 @@
         <v>43956</v>
       </c>
       <c r="Y50" s="32">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z50" s="42" t="n">
-        <v>-2108.71876</v>
+        <v>-3283.85328</v>
       </c>
       <c r="AA50" s="42" t="n">
-        <v>2138.66</v>
+        <v>3330.48</v>
       </c>
       <c r="AB50" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC50" s="29">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD50" s="35" t="n"/>
@@ -4443,7 +4365,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1" s="66">
       <c r="A51" s="36" t="n">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="B51" s="37" t="inlineStr">
         <is>
@@ -4459,10 +4381,10 @@
         <v>5</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>520.42</v>
+        <v>526.62</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>2602.1</v>
+        <v>2633.08</v>
       </c>
       <c r="G51" s="37" t="inlineStr">
         <is>
@@ -4470,10 +4392,10 @@
         </is>
       </c>
       <c r="H51" s="38" t="n">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="I51" s="38" t="n">
-        <v>15.52</v>
+        <v>15.72</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
@@ -4481,41 +4403,41 @@
       </c>
       <c r="K51" s="33" t="n"/>
       <c r="L51" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M51" s="40">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N51" s="41">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O51" s="40" t="n"/>
       <c r="P51" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="40">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R51" s="40">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S51" s="40" t="n"/>
       <c r="T51" s="40">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*SUM(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*SUM(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U51" s="40">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V51" s="40">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W51" s="39" t="n">
@@ -4525,20 +4447,20 @@
         <v>43956</v>
       </c>
       <c r="Y51" s="32">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z51" s="42" t="n">
-        <v>-5520.515399999999</v>
+        <v>-2108.71876</v>
       </c>
       <c r="AA51" s="42" t="n">
-        <v>5598.9</v>
+        <v>2138.66</v>
       </c>
       <c r="AB51" s="43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="29">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD51" s="35" t="n"/>
@@ -4557,11 +4479,11 @@
     </row>
     <row r="52" ht="15.75" customHeight="1" s="66">
       <c r="A52" s="36" t="n">
-        <v>43878</v>
+        <v>43892</v>
       </c>
       <c r="B52" s="37" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C52" s="37" t="inlineStr">
@@ -4570,24 +4492,24 @@
         </is>
       </c>
       <c r="D52" s="38" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>1.75</v>
+        <v>520.42</v>
       </c>
       <c r="F52" s="39" t="n">
-        <v>96.25</v>
+        <v>2602.1</v>
       </c>
       <c r="G52" s="37" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.7500/- per share on Ex-Date: 17-FEB-2020</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H52" s="38" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I52" s="38" t="n">
-        <v>0</v>
+        <v>15.52</v>
       </c>
       <c r="J52" s="29">
         <f>Index!$C$2</f>
@@ -4595,65 +4517,87 @@
       </c>
       <c r="K52" s="33" t="n"/>
       <c r="L52" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M52" s="40">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N52" s="41">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O52" s="40" t="n"/>
       <c r="P52" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="40">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R52" s="40">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S52" s="40" t="n"/>
       <c r="T52" s="40">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*SUM(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*SUM(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U52" s="40">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V52" s="40">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W52" s="33" t="n"/>
-      <c r="X52" s="33" t="n"/>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W52" s="39" t="n">
+        <v>659.49</v>
+      </c>
+      <c r="X52" s="36" t="n">
+        <v>43956</v>
+      </c>
       <c r="Y52" s="32">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="33" t="n"/>
-      <c r="AA52" s="33" t="n"/>
-      <c r="AB52" s="34" t="n"/>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z52" s="42" t="n">
+        <v>-5520.515399999999</v>
+      </c>
+      <c r="AA52" s="42" t="n">
+        <v>5598.9</v>
+      </c>
+      <c r="AB52" s="43" t="n">
+        <v>5</v>
+      </c>
       <c r="AC52" s="29">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD52" s="35" t="n"/>
+      <c r="AE52" s="44" t="n"/>
+      <c r="AF52" s="44" t="n"/>
+      <c r="AG52" s="44" t="n"/>
+      <c r="AH52" s="44" t="n"/>
+      <c r="AI52" s="44" t="n"/>
+      <c r="AJ52" s="44" t="n"/>
+      <c r="AK52" s="44" t="n"/>
+      <c r="AL52" s="44" t="n"/>
+      <c r="AM52" s="44" t="n"/>
+      <c r="AN52" s="44" t="n"/>
+      <c r="AO52" s="44" t="n"/>
+      <c r="AP52" s="44" t="n"/>
     </row>
     <row r="53" ht="13" customHeight="1" s="66">
       <c r="A53" s="36" t="n">
-        <v>43864</v>
+        <v>43878</v>
       </c>
       <c r="B53" s="37" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C53" s="37" t="inlineStr">
@@ -4662,24 +4606,24 @@
         </is>
       </c>
       <c r="D53" s="38" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>480.8</v>
+        <v>1.75</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>2404.01</v>
+        <v>96.25</v>
       </c>
       <c r="G53" s="37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.7500/- per share on Ex-Date: 17-FEB-2020</t>
         </is>
       </c>
       <c r="H53" s="38" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="I53" s="38" t="n">
-        <v>14.37</v>
+        <v>0</v>
       </c>
       <c r="J53" s="29">
         <f>Index!$C$2</f>
@@ -4687,77 +4631,61 @@
       </c>
       <c r="K53" s="33" t="n"/>
       <c r="L53" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M53" s="40">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N53" s="41">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O53" s="40" t="n"/>
       <c r="P53" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="40">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R53" s="40">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S53" s="40" t="n"/>
       <c r="T53" s="40">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*SUM(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*SUM(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U53" s="40">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V53" s="40">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
-        <v/>
-      </c>
-      <c r="W53" s="39" t="n">
-        <v>659.49</v>
-      </c>
-      <c r="X53" s="36" t="n">
-        <v>43956</v>
-      </c>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="33" t="n"/>
+      <c r="X53" s="33" t="n"/>
       <c r="Y53" s="32">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z53" s="33" t="n"/>
       <c r="AA53" s="33" t="n"/>
       <c r="AB53" s="34" t="n"/>
       <c r="AC53" s="29">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD53" s="35" t="n"/>
-      <c r="AE53" s="44" t="n"/>
-      <c r="AF53" s="44" t="n"/>
-      <c r="AG53" s="44" t="n"/>
-      <c r="AH53" s="44" t="n"/>
-      <c r="AI53" s="44" t="n"/>
-      <c r="AJ53" s="44" t="n"/>
-      <c r="AK53" s="44" t="n"/>
-      <c r="AL53" s="44" t="n"/>
-      <c r="AM53" s="44" t="n"/>
-      <c r="AN53" s="44" t="n"/>
-      <c r="AO53" s="44" t="n"/>
-      <c r="AP53" s="44" t="n"/>
     </row>
     <row r="54" ht="13" customHeight="1" s="66">
       <c r="A54" s="36" t="n">
-        <v>43860</v>
+        <v>43864</v>
       </c>
       <c r="B54" s="37" t="inlineStr">
         <is>
@@ -4773,10 +4701,10 @@
         <v>5</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>475.61</v>
+        <v>480.8</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>2378.06</v>
+        <v>2404.01</v>
       </c>
       <c r="G54" s="37" t="inlineStr">
         <is>
@@ -4784,10 +4712,10 @@
         </is>
       </c>
       <c r="H54" s="38" t="n">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="I54" s="38" t="n">
-        <v>14.23</v>
+        <v>14.37</v>
       </c>
       <c r="J54" s="29">
         <f>Index!$C$2</f>
@@ -4795,64 +4723,58 @@
       </c>
       <c r="K54" s="33" t="n"/>
       <c r="L54" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M54" s="40">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N54" s="41">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O54" s="40" t="n"/>
       <c r="P54" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="40">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R54" s="40">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S54" s="40" t="n"/>
       <c r="T54" s="40">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*SUM(H34:I34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*SUM(H33:I33)), "")</f>
         <v/>
       </c>
       <c r="U54" s="40">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V54" s="40">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W54" s="39" t="n">
-        <v>664.86</v>
+        <v>659.49</v>
       </c>
       <c r="X54" s="36" t="n">
-        <v>43943</v>
+        <v>43956</v>
       </c>
       <c r="Y54" s="32">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="42" t="n">
-        <v>-9454.793440000001</v>
-      </c>
-      <c r="AA54" s="42" t="n">
-        <v>9589.040000000001</v>
-      </c>
-      <c r="AB54" s="43" t="n">
-        <v>8</v>
-      </c>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="33" t="n"/>
+      <c r="AA54" s="33" t="n"/>
+      <c r="AB54" s="34" t="n"/>
       <c r="AC54" s="29">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD54" s="35" t="n"/>
@@ -4871,7 +4793,7 @@
     </row>
     <row r="55" ht="13" customHeight="1" s="66">
       <c r="A55" s="36" t="n">
-        <v>43846</v>
+        <v>43860</v>
       </c>
       <c r="B55" s="37" t="inlineStr">
         <is>
@@ -4887,10 +4809,10 @@
         <v>5</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>486.46</v>
+        <v>475.61</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>2432.28</v>
+        <v>2378.06</v>
       </c>
       <c r="G55" s="37" t="inlineStr">
         <is>
@@ -4898,10 +4820,10 @@
         </is>
       </c>
       <c r="H55" s="38" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="I55" s="38" t="n">
-        <v>14.58</v>
+        <v>14.23</v>
       </c>
       <c r="J55" s="29">
         <f>Index!$C$2</f>
@@ -4909,41 +4831,41 @@
       </c>
       <c r="K55" s="33" t="n"/>
       <c r="L55" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M55" s="40">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N55" s="41">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O55" s="40" t="n"/>
       <c r="P55" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="40">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R55" s="40">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S55" s="40" t="n"/>
       <c r="T55" s="40">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*SUM(H35:I35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*SUM(H34:I34)), "")</f>
         <v/>
       </c>
       <c r="U55" s="40">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V55" s="40">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W55" s="39" t="n">
@@ -4953,20 +4875,20 @@
         <v>43943</v>
       </c>
       <c r="Y55" s="32">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z55" s="42" t="n">
-        <v>-3516.9634</v>
+        <v>-9454.793440000001</v>
       </c>
       <c r="AA55" s="42" t="n">
-        <v>3566.9</v>
+        <v>9589.040000000001</v>
       </c>
       <c r="AB55" s="43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC55" s="29">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD55" s="35" t="n"/>
@@ -4985,7 +4907,7 @@
     </row>
     <row r="56" ht="13" customHeight="1" s="66">
       <c r="A56" s="36" t="n">
-        <v>43844</v>
+        <v>43846</v>
       </c>
       <c r="B56" s="37" t="inlineStr">
         <is>
@@ -5001,10 +4923,10 @@
         <v>5</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>467.65</v>
+        <v>486.46</v>
       </c>
       <c r="F56" s="39" t="n">
-        <v>2338.27</v>
+        <v>2432.28</v>
       </c>
       <c r="G56" s="37" t="inlineStr">
         <is>
@@ -5012,10 +4934,10 @@
         </is>
       </c>
       <c r="H56" s="38" t="n">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="I56" s="38" t="n">
-        <v>13.96</v>
+        <v>14.58</v>
       </c>
       <c r="J56" s="29">
         <f>Index!$C$2</f>
@@ -5023,41 +4945,41 @@
       </c>
       <c r="K56" s="33" t="n"/>
       <c r="L56" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M56" s="40">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N56" s="41">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O56" s="40" t="n"/>
       <c r="P56" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="40">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R56" s="40">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S56" s="40" t="n"/>
       <c r="T56" s="40">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*SUM(H36:I36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*SUM(H35:I35)), "")</f>
         <v/>
       </c>
       <c r="U56" s="40">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V56" s="40">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W56" s="39" t="n">
@@ -5067,20 +4989,20 @@
         <v>43943</v>
       </c>
       <c r="Y56" s="32">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z56" s="42" t="n">
-        <v>-648.6105200000001</v>
+        <v>-3516.9634</v>
       </c>
       <c r="AA56" s="42" t="n">
-        <v>657.8200000000001</v>
+        <v>3566.9</v>
       </c>
       <c r="AB56" s="43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC56" s="29">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD56" s="35" t="n"/>
@@ -5099,7 +5021,7 @@
     </row>
     <row r="57" ht="13" customHeight="1" s="66">
       <c r="A57" s="36" t="n">
-        <v>43803</v>
+        <v>43844</v>
       </c>
       <c r="B57" s="37" t="inlineStr">
         <is>
@@ -5115,10 +5037,10 @@
         <v>5</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>449.43</v>
+        <v>467.65</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>2247.13</v>
+        <v>2338.27</v>
       </c>
       <c r="G57" s="37" t="inlineStr">
         <is>
@@ -5126,10 +5048,10 @@
         </is>
       </c>
       <c r="H57" s="38" t="n">
-        <v>1.98</v>
+        <v>2.31</v>
       </c>
       <c r="I57" s="38" t="n">
-        <v>13.4</v>
+        <v>13.96</v>
       </c>
       <c r="J57" s="29">
         <f>Index!$C$2</f>
@@ -5137,41 +5059,41 @@
       </c>
       <c r="K57" s="33" t="n"/>
       <c r="L57" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M57" s="40">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N57" s="41">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O57" s="40" t="n"/>
       <c r="P57" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="40">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R57" s="40">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S57" s="40" t="n"/>
       <c r="T57" s="40">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*SUM(H37:I37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*SUM(H36:I36)), "")</f>
         <v/>
       </c>
       <c r="U57" s="40">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V57" s="40">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W57" s="39" t="n">
@@ -5181,20 +5103,20 @@
         <v>43943</v>
       </c>
       <c r="Y57" s="32">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z57" s="42" t="n">
-        <v>-5835.71988</v>
+        <v>-648.6105200000001</v>
       </c>
       <c r="AA57" s="42" t="n">
-        <v>5918.58</v>
+        <v>657.8200000000001</v>
       </c>
       <c r="AB57" s="43" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="29">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD57" s="35" t="n"/>
@@ -5213,7 +5135,7 @@
     </row>
     <row r="58" ht="13" customHeight="1" s="66">
       <c r="A58" s="36" t="n">
-        <v>43801</v>
+        <v>43803</v>
       </c>
       <c r="B58" s="37" t="inlineStr">
         <is>
@@ -5229,10 +5151,10 @@
         <v>5</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>452.09</v>
+        <v>449.43</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>2260.47</v>
+        <v>2247.13</v>
       </c>
       <c r="G58" s="37" t="inlineStr">
         <is>
@@ -5240,10 +5162,10 @@
         </is>
       </c>
       <c r="H58" s="38" t="n">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="I58" s="38" t="n">
-        <v>13.61</v>
+        <v>13.4</v>
       </c>
       <c r="J58" s="29">
         <f>Index!$C$2</f>
@@ -5251,41 +5173,41 @@
       </c>
       <c r="K58" s="33" t="n"/>
       <c r="L58" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M58" s="40">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N58" s="41">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O58" s="40" t="n"/>
       <c r="P58" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="40">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R58" s="40">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S58" s="40" t="n"/>
       <c r="T58" s="40">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*SUM(H38:I38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*SUM(H37:I37)), "")</f>
         <v/>
       </c>
       <c r="U58" s="40">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V58" s="40">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W58" s="39" t="n">
@@ -5294,20 +5216,21 @@
       <c r="X58" s="36" t="n">
         <v>43943</v>
       </c>
-      <c r="Y58" s="32" t="e">
-        <v>#REF!</v>
+      <c r="Y58" s="32">
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <v/>
       </c>
       <c r="Z58" s="42" t="n">
-        <v>131.47324</v>
-      </c>
-      <c r="AA58" s="42" t="e">
-        <v>#REF!</v>
+        <v>-5835.71988</v>
+      </c>
+      <c r="AA58" s="42" t="n">
+        <v>5918.58</v>
       </c>
       <c r="AB58" s="43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC58" s="29">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD58" s="35" t="n"/>
@@ -5326,7 +5249,7 @@
     </row>
     <row r="59" ht="13" customHeight="1" s="66">
       <c r="A59" s="36" t="n">
-        <v>43798</v>
+        <v>43801</v>
       </c>
       <c r="B59" s="37" t="inlineStr">
         <is>
@@ -5342,10 +5265,10 @@
         <v>5</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>457.23</v>
+        <v>452.09</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>2286.16</v>
+        <v>2260.47</v>
       </c>
       <c r="G59" s="37" t="inlineStr">
         <is>
@@ -5353,10 +5276,10 @@
         </is>
       </c>
       <c r="H59" s="38" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="I59" s="38" t="n">
-        <v>13.7</v>
+        <v>13.61</v>
       </c>
       <c r="J59" s="29">
         <f>Index!$C$2</f>
@@ -5364,41 +5287,41 @@
       </c>
       <c r="K59" s="33" t="n"/>
       <c r="L59" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M59" s="40">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N59" s="41">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O59" s="40" t="n"/>
       <c r="P59" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="40">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R59" s="40">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S59" s="40" t="n"/>
       <c r="T59" s="40">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*SUM(H39:I39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*SUM(H38:I38)), "")</f>
         <v/>
       </c>
       <c r="U59" s="40">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V59" s="40">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W59" s="39" t="n">
@@ -5411,16 +5334,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z59" s="42" t="n">
-        <v>525.8929600000001</v>
+        <v>131.47324</v>
       </c>
       <c r="AA59" s="42" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB59" s="43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="29">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD59" s="35" t="n"/>
@@ -5439,7 +5362,7 @@
     </row>
     <row r="60" ht="13" customHeight="1" s="66">
       <c r="A60" s="36" t="n">
-        <v>43794</v>
+        <v>43798</v>
       </c>
       <c r="B60" s="37" t="inlineStr">
         <is>
@@ -5455,10 +5378,10 @@
         <v>5</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>442.91</v>
+        <v>457.23</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>2214.53</v>
+        <v>2286.16</v>
       </c>
       <c r="G60" s="37" t="inlineStr">
         <is>
@@ -5466,10 +5389,10 @@
         </is>
       </c>
       <c r="H60" s="38" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="I60" s="38" t="n">
-        <v>13.34</v>
+        <v>13.7</v>
       </c>
       <c r="J60" s="29">
         <f>Index!$C$2</f>
@@ -5477,41 +5400,41 @@
       </c>
       <c r="K60" s="33" t="n"/>
       <c r="L60" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M60" s="40">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N60" s="41">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O60" s="40" t="n"/>
       <c r="P60" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="40">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R60" s="40">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S60" s="40" t="n"/>
       <c r="T60" s="40">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*SUM(H40:I40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*SUM(H39:I39)), "")</f>
         <v/>
       </c>
       <c r="U60" s="40">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V60" s="40">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W60" s="39" t="n">
@@ -5520,21 +5443,20 @@
       <c r="X60" s="36" t="n">
         <v>43943</v>
       </c>
-      <c r="Y60" s="32">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
-        <v/>
+      <c r="Y60" s="32" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z60" s="42" t="n">
-        <v>-29.58</v>
-      </c>
-      <c r="AA60" s="42" t="n">
-        <v>30</v>
+        <v>525.8929600000001</v>
+      </c>
+      <c r="AA60" s="42" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB60" s="43" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC60" s="29">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD60" s="35" t="n"/>
@@ -5553,11 +5475,11 @@
     </row>
     <row r="61" ht="13" customHeight="1" s="66">
       <c r="A61" s="36" t="n">
-        <v>43790</v>
+        <v>43794</v>
       </c>
       <c r="B61" s="37" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C61" s="37" t="inlineStr">
@@ -5566,24 +5488,24 @@
         </is>
       </c>
       <c r="D61" s="38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>1.25</v>
+        <v>442.91</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>18.75</v>
+        <v>2214.53</v>
       </c>
       <c r="G61" s="37" t="inlineStr">
         <is>
-          <t>Dividend of Rs.1.2500/- per share on 21-NOV-2019</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H61" s="38" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="I61" s="38" t="n">
-        <v>0</v>
+        <v>13.34</v>
       </c>
       <c r="J61" s="29">
         <f>Index!$C$2</f>
@@ -5591,64 +5513,87 @@
       </c>
       <c r="K61" s="33" t="n"/>
       <c r="L61" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M61" s="40">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N61" s="41">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O61" s="40" t="n"/>
       <c r="P61" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="40">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R61" s="40">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S61" s="40" t="n"/>
       <c r="T61" s="40">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*SUM(H41:I41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*SUM(H40:I40)), "")</f>
         <v/>
       </c>
       <c r="U61" s="40">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V61" s="40">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
-        <v/>
-      </c>
-      <c r="W61" s="33" t="n"/>
-      <c r="X61" s="33" t="n"/>
-      <c r="Y61" s="32" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z61" s="33" t="n"/>
-      <c r="AA61" s="33" t="n"/>
-      <c r="AB61" s="34" t="n"/>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="39" t="n">
+        <v>664.86</v>
+      </c>
+      <c r="X61" s="36" t="n">
+        <v>43943</v>
+      </c>
+      <c r="Y61" s="32">
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="42" t="n">
+        <v>-29.58</v>
+      </c>
+      <c r="AA61" s="42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB61" s="43" t="n">
+        <v>10</v>
+      </c>
       <c r="AC61" s="29">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD61" s="35" t="n"/>
+      <c r="AE61" s="44" t="n"/>
+      <c r="AF61" s="44" t="n"/>
+      <c r="AG61" s="44" t="n"/>
+      <c r="AH61" s="44" t="n"/>
+      <c r="AI61" s="44" t="n"/>
+      <c r="AJ61" s="44" t="n"/>
+      <c r="AK61" s="44" t="n"/>
+      <c r="AL61" s="44" t="n"/>
+      <c r="AM61" s="44" t="n"/>
+      <c r="AN61" s="44" t="n"/>
+      <c r="AO61" s="44" t="n"/>
+      <c r="AP61" s="44" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1" s="66">
       <c r="A62" s="36" t="n">
-        <v>43788</v>
+        <v>43790</v>
       </c>
       <c r="B62" s="37" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C62" s="37" t="inlineStr">
@@ -5657,24 +5602,24 @@
         </is>
       </c>
       <c r="D62" s="38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>431.96</v>
+        <v>1.25</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>2159.81</v>
+        <v>18.75</v>
       </c>
       <c r="G62" s="37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Dividend of Rs.1.2500/- per share on 21-NOV-2019</t>
         </is>
       </c>
       <c r="H62" s="38" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="I62" s="38" t="n">
-        <v>13.02</v>
+        <v>0</v>
       </c>
       <c r="J62" s="29">
         <f>Index!$C$2</f>
@@ -5682,82 +5627,60 @@
       </c>
       <c r="K62" s="33" t="n"/>
       <c r="L62" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M62" s="40">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N62" s="41">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O62" s="40" t="n"/>
       <c r="P62" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="40">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R62" s="40">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S62" s="40" t="n"/>
       <c r="T62" s="40">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*SUM(H42:I42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*SUM(H41:I41)), "")</f>
         <v/>
       </c>
       <c r="U62" s="40">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V62" s="40">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
-        <v/>
-      </c>
-      <c r="W62" s="39" t="n">
-        <v>664.86</v>
-      </c>
-      <c r="X62" s="36" t="n">
-        <v>43943</v>
-      </c>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="33" t="n"/>
+      <c r="X62" s="33" t="n"/>
       <c r="Y62" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z62" s="42" t="n">
-        <v>214.91842</v>
-      </c>
-      <c r="AA62" s="42" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB62" s="43" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z62" s="33" t="n"/>
+      <c r="AA62" s="33" t="n"/>
+      <c r="AB62" s="34" t="n"/>
       <c r="AC62" s="29">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD62" s="35" t="n"/>
-      <c r="AE62" s="44" t="n"/>
-      <c r="AF62" s="44" t="n"/>
-      <c r="AG62" s="44" t="n"/>
-      <c r="AH62" s="44" t="n"/>
-      <c r="AI62" s="44" t="n"/>
-      <c r="AJ62" s="44" t="n"/>
-      <c r="AK62" s="44" t="n"/>
-      <c r="AL62" s="44" t="n"/>
-      <c r="AM62" s="44" t="n"/>
-      <c r="AN62" s="44" t="n"/>
-      <c r="AO62" s="44" t="n"/>
-      <c r="AP62" s="44" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="66">
       <c r="A63" s="36" t="n">
-        <v>43784</v>
+        <v>43788</v>
       </c>
       <c r="B63" s="37" t="inlineStr">
         <is>
@@ -5773,10 +5696,10 @@
         <v>5</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>401.72</v>
+        <v>431.96</v>
       </c>
       <c r="F63" s="39" t="n">
-        <v>2008.62</v>
+        <v>2159.81</v>
       </c>
       <c r="G63" s="37" t="inlineStr">
         <is>
@@ -5784,10 +5707,10 @@
         </is>
       </c>
       <c r="H63" s="38" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="I63" s="38" t="n">
-        <v>12.05</v>
+        <v>13.02</v>
       </c>
       <c r="J63" s="29">
         <f>Index!$C$2</f>
@@ -5795,41 +5718,41 @@
       </c>
       <c r="K63" s="33" t="n"/>
       <c r="L63" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M63" s="40">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N63" s="41">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O63" s="40" t="n"/>
       <c r="P63" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="40">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R63" s="40">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S63" s="40" t="n"/>
       <c r="T63" s="40">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*SUM(H43:I43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*SUM(H42:I42)), "")</f>
         <v/>
       </c>
       <c r="U63" s="40">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V63" s="40">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W63" s="39" t="n">
@@ -5838,20 +5761,20 @@
       <c r="X63" s="36" t="n">
         <v>43943</v>
       </c>
-      <c r="Y63" s="32" t="n">
-        <v>-0.06360367043493685</v>
+      <c r="Y63" s="32" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z63" s="42" t="n">
-        <v>1504.497960000001</v>
-      </c>
-      <c r="AA63" s="42" t="n">
-        <v>2881.68</v>
+        <v>214.91842</v>
+      </c>
+      <c r="AA63" s="42" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB63" s="43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC63" s="29">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD63" s="35" t="n"/>
@@ -5870,11 +5793,11 @@
     </row>
     <row r="64" ht="13" customHeight="1" s="66">
       <c r="A64" s="36" t="n">
-        <v>43511</v>
+        <v>43784</v>
       </c>
       <c r="B64" s="37" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C64" s="37" t="inlineStr">
@@ -5886,21 +5809,21 @@
         <v>5</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>1.25</v>
+        <v>401.72</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>6.25</v>
+        <v>2008.62</v>
       </c>
       <c r="G64" s="37" t="inlineStr">
         <is>
-          <t>Dividend of Rs.1.2500/- per share on 15-FEB-2019</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H64" s="38" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="I64" s="38" t="n">
-        <v>0</v>
+        <v>12.05</v>
       </c>
       <c r="J64" s="29">
         <f>Index!$C$2</f>
@@ -5908,61 +5831,82 @@
       </c>
       <c r="K64" s="33" t="n"/>
       <c r="L64" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M64" s="40">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N64" s="41">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O64" s="40" t="n"/>
       <c r="P64" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="40">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R64" s="40">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S64" s="40" t="n"/>
       <c r="T64" s="40">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*SUM(H44:I44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*SUM(H43:I43)), "")</f>
         <v/>
       </c>
       <c r="U64" s="40">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V64" s="40">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
-        <v/>
-      </c>
-      <c r="W64" s="33" t="n"/>
-      <c r="X64" s="33" t="n"/>
-      <c r="Y64" s="32">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
-        <v/>
-      </c>
-      <c r="Z64" s="33" t="n"/>
-      <c r="AA64" s="33" t="n"/>
-      <c r="AB64" s="34" t="n"/>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <v/>
+      </c>
+      <c r="W64" s="39" t="n">
+        <v>664.86</v>
+      </c>
+      <c r="X64" s="36" t="n">
+        <v>43943</v>
+      </c>
+      <c r="Y64" s="32" t="n">
+        <v>-0.06360367043493685</v>
+      </c>
+      <c r="Z64" s="42" t="n">
+        <v>1504.497960000001</v>
+      </c>
+      <c r="AA64" s="42" t="n">
+        <v>2881.68</v>
+      </c>
+      <c r="AB64" s="43" t="n">
+        <v>7</v>
+      </c>
       <c r="AC64" s="29">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD64" s="35" t="n"/>
+      <c r="AE64" s="44" t="n"/>
+      <c r="AF64" s="44" t="n"/>
+      <c r="AG64" s="44" t="n"/>
+      <c r="AH64" s="44" t="n"/>
+      <c r="AI64" s="44" t="n"/>
+      <c r="AJ64" s="44" t="n"/>
+      <c r="AK64" s="44" t="n"/>
+      <c r="AL64" s="44" t="n"/>
+      <c r="AM64" s="44" t="n"/>
+      <c r="AN64" s="44" t="n"/>
+      <c r="AO64" s="44" t="n"/>
+      <c r="AP64" s="44" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="66">
       <c r="A65" s="36" t="n">
-        <v>43424</v>
+        <v>43511</v>
       </c>
       <c r="B65" s="37" t="inlineStr">
         <is>
@@ -5985,7 +5929,7 @@
       </c>
       <c r="G65" s="37" t="inlineStr">
         <is>
-          <t>Dividend of Rs.1.2500/- per share on 20-NOV-2018</t>
+          <t>Dividend of Rs.1.2500/- per share on 15-FEB-2019</t>
         </is>
       </c>
       <c r="H65" s="38" t="n">
@@ -6000,91 +5944,91 @@
       </c>
       <c r="K65" s="33" t="n"/>
       <c r="L65" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M65" s="40">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N65" s="41">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O65" s="40" t="n"/>
       <c r="P65" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="40">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R65" s="40">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S65" s="40" t="n"/>
       <c r="T65" s="40">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*SUM(H45:I45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*SUM(H44:I44)), "")</f>
         <v/>
       </c>
       <c r="U65" s="40">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V65" s="40">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W65" s="33" t="n"/>
       <c r="X65" s="33" t="n"/>
       <c r="Y65" s="32">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z65" s="33" t="n"/>
       <c r="AA65" s="33" t="n"/>
       <c r="AB65" s="34" t="n"/>
       <c r="AC65" s="29">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD65" s="35" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1" s="66">
       <c r="A66" s="36" t="n">
-        <v>43377</v>
+        <v>43424</v>
       </c>
       <c r="B66" s="37" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C66" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D66" s="38" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>756.66</v>
+        <v>1.25</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>18916.41</v>
+        <v>6.25</v>
       </c>
       <c r="G66" s="37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Dividend of Rs.1.2500/- per share on 20-NOV-2018</t>
         </is>
       </c>
       <c r="H66" s="38" t="n">
-        <v>19.29</v>
+        <v>0</v>
       </c>
       <c r="I66" s="38" t="n">
-        <v>114.3</v>
+        <v>0</v>
       </c>
       <c r="J66" s="29">
         <f>Index!$C$2</f>
@@ -6092,61 +6036,61 @@
       </c>
       <c r="K66" s="33" t="n"/>
       <c r="L66" s="33">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M66" s="40">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N66" s="41">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O66" s="40" t="n"/>
       <c r="P66" s="33">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="40">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R66" s="40">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S66" s="40" t="n"/>
       <c r="T66" s="40">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*SUM(H46:I46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*SUM(H45:I45)), "")</f>
         <v/>
       </c>
       <c r="U66" s="40">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V66" s="40">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W66" s="33" t="n"/>
       <c r="X66" s="33" t="n"/>
       <c r="Y66" s="32">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z66" s="33" t="n"/>
       <c r="AA66" s="33" t="n"/>
       <c r="AB66" s="34" t="n"/>
       <c r="AC66" s="29">
-        <f>IF(B46="DIV", F46,"")</f>
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD66" s="35" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1" s="66">
       <c r="A67" s="36" t="n">
-        <v>43368</v>
+        <v>43377</v>
       </c>
       <c r="B67" s="37" t="inlineStr">
         <is>
@@ -6159,13 +6103,13 @@
         </is>
       </c>
       <c r="D67" s="38" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>759.58</v>
+        <v>756.66</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>53170.34</v>
+        <v>18916.41</v>
       </c>
       <c r="G67" s="37" t="inlineStr">
         <is>
@@ -6173,10 +6117,10 @@
         </is>
       </c>
       <c r="H67" s="38" t="n">
-        <v>53.81</v>
+        <v>19.29</v>
       </c>
       <c r="I67" s="38" t="n">
-        <v>321.05</v>
+        <v>114.3</v>
       </c>
       <c r="J67" s="29">
         <f>Index!$C$2</f>
@@ -6184,90 +6128,91 @@
       </c>
       <c r="K67" s="33" t="n"/>
       <c r="L67" s="33">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M67" s="40">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N67" s="41">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O67" s="40" t="n"/>
       <c r="P67" s="33">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="40">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R67" s="40">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S67" s="40" t="n"/>
       <c r="T67" s="40">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*SUM(H47:I47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*SUM(H46:I46)), "")</f>
         <v/>
       </c>
       <c r="U67" s="40">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V67" s="40">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W67" s="33" t="n"/>
       <c r="X67" s="33" t="n"/>
-      <c r="Y67" s="32" t="n">
-        <v>-3.130249056603774</v>
+      <c r="Y67" s="32">
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
+        <v/>
       </c>
       <c r="Z67" s="33" t="n"/>
       <c r="AA67" s="33" t="n"/>
       <c r="AB67" s="34" t="n"/>
       <c r="AC67" s="29">
-        <f>IF(B47="DIV", F47,"")</f>
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD67" s="35" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1" s="66">
       <c r="A68" s="36" t="n">
-        <v>43151</v>
+        <v>43368</v>
       </c>
       <c r="B68" s="37" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C68" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D68" s="38" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>1</v>
+        <v>759.58</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>100</v>
+        <v>53170.34</v>
       </c>
       <c r="G68" s="37" t="inlineStr">
         <is>
-          <t>Dividend of Rs.1.0000/- per share on 20-FEB-2018</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H68" s="38" t="n">
-        <v>0</v>
+        <v>53.81</v>
       </c>
       <c r="I68" s="38" t="n">
-        <v>0</v>
+        <v>321.05</v>
       </c>
       <c r="J68" s="29">
         <f>Index!$C$2</f>
@@ -6275,60 +6220,60 @@
       </c>
       <c r="K68" s="33" t="n"/>
       <c r="L68" s="33">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M68" s="40">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N68" s="41">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O68" s="40" t="n"/>
       <c r="P68" s="33">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="40">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R68" s="40">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S68" s="40" t="n"/>
       <c r="T68" s="40">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*SUM(H48:I48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*SUM(H47:I47)), "")</f>
         <v/>
       </c>
       <c r="U68" s="40">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V68" s="40">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W68" s="33" t="n"/>
       <c r="X68" s="33" t="n"/>
       <c r="Y68" s="32" t="n">
-        <v>-1.258615338622513</v>
+        <v>-3.130249056603774</v>
       </c>
       <c r="Z68" s="33" t="n"/>
       <c r="AA68" s="33" t="n"/>
       <c r="AB68" s="34" t="n"/>
       <c r="AC68" s="29">
-        <f>IF(B48="DIV", F48,"")</f>
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD68" s="35" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1" s="66">
       <c r="A69" s="36" t="n">
-        <v>43060</v>
+        <v>43151</v>
       </c>
       <c r="B69" s="37" t="inlineStr">
         <is>
@@ -6344,14 +6289,14 @@
         <v>100</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G69" s="37" t="inlineStr">
         <is>
-          <t>Dividend of Rs.1.5000/- per share on 21-NOV-2017</t>
+          <t>Dividend of Rs.1.0000/- per share on 20-FEB-2018</t>
         </is>
       </c>
       <c r="H69" s="38" t="n">
@@ -6366,60 +6311,60 @@
       </c>
       <c r="K69" s="33" t="n"/>
       <c r="L69" s="33">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M69" s="40">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N69" s="41">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O69" s="40" t="n"/>
       <c r="P69" s="33">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="40">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R69" s="40">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S69" s="40" t="n"/>
       <c r="T69" s="40">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*SUM(H49:I49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*SUM(H48:I48)), "")</f>
         <v/>
       </c>
       <c r="U69" s="40">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V69" s="40">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W69" s="33" t="n"/>
       <c r="X69" s="33" t="n"/>
       <c r="Y69" s="32" t="n">
-        <v>-0.7953197581664095</v>
+        <v>-1.258615338622513</v>
       </c>
       <c r="Z69" s="33" t="n"/>
       <c r="AA69" s="33" t="n"/>
       <c r="AB69" s="34" t="n"/>
       <c r="AC69" s="29">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD69" s="35" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1" s="66">
       <c r="A70" s="36" t="n">
-        <v>42894</v>
+        <v>43060</v>
       </c>
       <c r="B70" s="37" t="inlineStr">
         <is>
@@ -6435,14 +6380,14 @@
         <v>100</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G70" s="37" t="inlineStr">
         <is>
-          <t>Dividend of Rs.1.2500/- per share on 08-JUN-2017</t>
+          <t>Dividend of Rs.1.5000/- per share on 21-NOV-2017</t>
         </is>
       </c>
       <c r="H70" s="38" t="n">
@@ -6457,64 +6402,64 @@
       </c>
       <c r="K70" s="33" t="n"/>
       <c r="L70" s="33">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M70" s="40">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N70" s="41">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O70" s="40" t="n"/>
       <c r="P70" s="33">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="40">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R70" s="40">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S70" s="40" t="n"/>
       <c r="T70" s="40">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*SUM(H50:I50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*SUM(H49:I49)), "")</f>
         <v/>
       </c>
       <c r="U70" s="40">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V70" s="40">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W70" s="33" t="n"/>
       <c r="X70" s="33" t="n"/>
       <c r="Y70" s="32" t="n">
-        <v>-2.106906114037096</v>
+        <v>-0.7953197581664095</v>
       </c>
       <c r="Z70" s="33" t="n"/>
       <c r="AA70" s="33" t="n"/>
       <c r="AB70" s="34" t="n"/>
       <c r="AC70" s="29">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD70" s="35" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1" s="66">
       <c r="A71" s="36" t="n">
-        <v>42881</v>
+        <v>42894</v>
       </c>
       <c r="B71" s="37" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C71" s="37" t="inlineStr">
@@ -6523,24 +6468,24 @@
         </is>
       </c>
       <c r="D71" s="38" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>542.1799999999999</v>
+        <v>1.25</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>3098.195</v>
+        <v>125</v>
       </c>
       <c r="G71" s="37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Dividend of Rs.1.2500/- per share on 08-JUN-2017</t>
         </is>
       </c>
       <c r="H71" s="38" t="n">
-        <v>3.075</v>
+        <v>0</v>
       </c>
       <c r="I71" s="38" t="n">
-        <v>25.168</v>
+        <v>0</v>
       </c>
       <c r="J71" s="29">
         <f>Index!$C$2</f>
@@ -6548,79 +6493,56 @@
       </c>
       <c r="K71" s="33" t="n"/>
       <c r="L71" s="33">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M71" s="40">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N71" s="41">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O71" s="40" t="n"/>
       <c r="P71" s="33">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="40">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R71" s="40">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S71" s="40" t="n"/>
       <c r="T71" s="40">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*SUM(H51:I51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*SUM(H50:I50)), "")</f>
         <v/>
       </c>
       <c r="U71" s="40">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V71" s="40">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
-        <v/>
-      </c>
-      <c r="W71" s="39" t="n">
-        <v>664.86</v>
-      </c>
-      <c r="X71" s="36" t="n">
-        <v>43943</v>
-      </c>
-      <c r="Y71" s="32">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
-        <v/>
-      </c>
-      <c r="Z71" s="42" t="n">
-        <v>-94.9025</v>
-      </c>
-      <c r="AA71" s="42" t="n">
-        <v>96.25</v>
-      </c>
-      <c r="AB71" s="43" t="n">
-        <v>55</v>
-      </c>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <v/>
+      </c>
+      <c r="W71" s="33" t="n"/>
+      <c r="X71" s="33" t="n"/>
+      <c r="Y71" s="32" t="n">
+        <v>-2.106906114037096</v>
+      </c>
+      <c r="Z71" s="33" t="n"/>
+      <c r="AA71" s="33" t="n"/>
+      <c r="AB71" s="34" t="n"/>
       <c r="AC71" s="29">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD71" s="35" t="n"/>
-      <c r="AE71" s="44" t="n"/>
-      <c r="AF71" s="44" t="n"/>
-      <c r="AG71" s="44" t="n"/>
-      <c r="AH71" s="44" t="n"/>
-      <c r="AI71" s="44" t="n"/>
-      <c r="AJ71" s="44" t="n"/>
-      <c r="AK71" s="44" t="n"/>
-      <c r="AL71" s="44" t="n"/>
-      <c r="AM71" s="44" t="n"/>
-      <c r="AN71" s="44" t="n"/>
-      <c r="AO71" s="44" t="n"/>
-      <c r="AP71" s="44" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1" s="66">
       <c r="A72" s="36" t="n">
@@ -6637,13 +6559,13 @@
         </is>
       </c>
       <c r="D72" s="38" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E72" s="39" t="n">
         <v>542.1799999999999</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>18589.17</v>
+        <v>3098.195</v>
       </c>
       <c r="G72" s="37" t="inlineStr">
         <is>
@@ -6651,10 +6573,10 @@
         </is>
       </c>
       <c r="H72" s="38" t="n">
-        <v>18.44</v>
+        <v>3.075</v>
       </c>
       <c r="I72" s="38" t="n">
-        <v>100.672</v>
+        <v>25.168</v>
       </c>
       <c r="J72" s="29">
         <f>Index!$C$2</f>
@@ -6662,64 +6584,64 @@
       </c>
       <c r="K72" s="33" t="n"/>
       <c r="L72" s="33">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M72" s="40">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N72" s="41">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O72" s="40" t="n"/>
       <c r="P72" s="33">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="40">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R72" s="40">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S72" s="40" t="n"/>
       <c r="T72" s="40">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*SUM(H52:I52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*SUM(H51:I51)), "")</f>
         <v/>
       </c>
       <c r="U72" s="40">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V72" s="40">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
-        <v/>
-      </c>
-      <c r="W72" s="33" t="n">
-        <v>758.12</v>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <v/>
+      </c>
+      <c r="W72" s="39" t="n">
+        <v>664.86</v>
       </c>
       <c r="X72" s="36" t="n">
-        <v>43377</v>
+        <v>43943</v>
       </c>
       <c r="Y72" s="32">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z72" s="42" t="n">
-        <v>880.9416999999999</v>
+        <v>-94.9025</v>
       </c>
       <c r="AA72" s="42" t="n">
-        <v>2404</v>
+        <v>96.25</v>
       </c>
       <c r="AB72" s="43" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="AC72" s="29">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD72" s="35" t="n"/>
@@ -6738,7 +6660,7 @@
     </row>
     <row r="73" ht="13" customHeight="1" s="66">
       <c r="A73" s="36" t="n">
-        <v>42877</v>
+        <v>42881</v>
       </c>
       <c r="B73" s="37" t="inlineStr">
         <is>
@@ -6751,13 +6673,13 @@
         </is>
       </c>
       <c r="D73" s="38" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>591.5700000000001</v>
+        <v>542.1799999999999</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>35494.3</v>
+        <v>18589.17</v>
       </c>
       <c r="G73" s="37" t="inlineStr">
         <is>
@@ -6765,10 +6687,10 @@
         </is>
       </c>
       <c r="H73" s="38" t="n">
-        <v>35</v>
+        <v>18.44</v>
       </c>
       <c r="I73" s="38" t="n">
-        <v>206.3</v>
+        <v>100.672</v>
       </c>
       <c r="J73" s="29">
         <f>Index!$C$2</f>
@@ -6776,41 +6698,41 @@
       </c>
       <c r="K73" s="33" t="n"/>
       <c r="L73" s="33">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M73" s="40">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N73" s="41">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O73" s="40" t="n"/>
       <c r="P73" s="33">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="40">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R73" s="40">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S73" s="40" t="n"/>
       <c r="T73" s="40">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*SUM(H53:I53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*SUM(H52:I52)), "")</f>
         <v/>
       </c>
       <c r="U73" s="40">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V73" s="40">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W73" s="33" t="n">
@@ -6819,20 +6741,21 @@
       <c r="X73" s="36" t="n">
         <v>43377</v>
       </c>
-      <c r="Y73" s="32" t="n">
-        <v>-3.948348147096409</v>
+      <c r="Y73" s="32">
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <v/>
       </c>
       <c r="Z73" s="42" t="n">
-        <v>933.0024999999999</v>
+        <v>880.9416999999999</v>
       </c>
       <c r="AA73" s="42" t="n">
-        <v>-7076.743440000001</v>
+        <v>2404</v>
       </c>
       <c r="AB73" s="43" t="n">
         <v>5</v>
       </c>
       <c r="AC73" s="29">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD73" s="35" t="n"/>
@@ -6850,20 +6773,117 @@
       <c r="AP73" s="44" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1" s="66">
-      <c r="E74" s="45" t="n"/>
-      <c r="F74" s="45" t="n"/>
-      <c r="G74" s="46" t="n"/>
-      <c r="J74" s="45" t="n"/>
-      <c r="K74" s="45" t="n"/>
-      <c r="L74" s="45" t="n"/>
-      <c r="M74" s="1" t="n"/>
-      <c r="W74" s="45" t="n"/>
-      <c r="X74" s="45" t="n"/>
-      <c r="Y74" s="45" t="n"/>
-      <c r="Z74" s="45" t="n"/>
-      <c r="AA74" s="45" t="n"/>
-      <c r="AB74" s="45" t="n"/>
-      <c r="AC74" s="45" t="n"/>
+      <c r="A74" s="36" t="n">
+        <v>42877</v>
+      </c>
+      <c r="B74" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C74" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D74" s="38" t="n">
+        <v>60</v>
+      </c>
+      <c r="E74" s="39" t="n">
+        <v>591.5700000000001</v>
+      </c>
+      <c r="F74" s="39" t="n">
+        <v>35494.3</v>
+      </c>
+      <c r="G74" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H74" s="38" t="n">
+        <v>35</v>
+      </c>
+      <c r="I74" s="38" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="J74" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K74" s="33" t="n"/>
+      <c r="L74" s="33">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <v/>
+      </c>
+      <c r="M74" s="40">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <v/>
+      </c>
+      <c r="N74" s="41">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <v/>
+      </c>
+      <c r="O74" s="40" t="n"/>
+      <c r="P74" s="33">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <v/>
+      </c>
+      <c r="Q74" s="40">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <v/>
+      </c>
+      <c r="R74" s="40">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <v/>
+      </c>
+      <c r="S74" s="40" t="n"/>
+      <c r="T74" s="40">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*SUM(H53:I53)), "")</f>
+        <v/>
+      </c>
+      <c r="U74" s="40">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <v/>
+      </c>
+      <c r="V74" s="40">
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <v/>
+      </c>
+      <c r="W74" s="33" t="n">
+        <v>758.12</v>
+      </c>
+      <c r="X74" s="36" t="n">
+        <v>43377</v>
+      </c>
+      <c r="Y74" s="32" t="n">
+        <v>-3.948348147096409</v>
+      </c>
+      <c r="Z74" s="42" t="n">
+        <v>933.0024999999999</v>
+      </c>
+      <c r="AA74" s="42" t="n">
+        <v>-7076.743440000001</v>
+      </c>
+      <c r="AB74" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC74" s="29">
+        <f>IF(B53="DIV", F53,"")</f>
+        <v/>
+      </c>
+      <c r="AD74" s="35" t="n"/>
+      <c r="AE74" s="44" t="n"/>
+      <c r="AF74" s="44" t="n"/>
+      <c r="AG74" s="44" t="n"/>
+      <c r="AH74" s="44" t="n"/>
+      <c r="AI74" s="44" t="n"/>
+      <c r="AJ74" s="44" t="n"/>
+      <c r="AK74" s="44" t="n"/>
+      <c r="AL74" s="44" t="n"/>
+      <c r="AM74" s="44" t="n"/>
+      <c r="AN74" s="44" t="n"/>
+      <c r="AO74" s="44" t="n"/>
+      <c r="AP74" s="44" t="n"/>
     </row>
     <row r="75" ht="13" customHeight="1" s="66">
       <c r="E75" s="45" t="n"/>
@@ -21816,6 +21836,7 @@
       <c r="J1009" s="45" t="n"/>
       <c r="K1009" s="45" t="n"/>
       <c r="L1009" s="45" t="n"/>
+      <c r="M1009" s="1" t="n"/>
       <c r="W1009" s="45" t="n"/>
       <c r="X1009" s="45" t="n"/>
       <c r="Y1009" s="45" t="n"/>
@@ -22063,6 +22084,21 @@
       <c r="AA1025" s="45" t="n"/>
       <c r="AB1025" s="45" t="n"/>
       <c r="AC1025" s="45" t="n"/>
+    </row>
+    <row r="1026">
+      <c r="E1026" s="45" t="n"/>
+      <c r="F1026" s="45" t="n"/>
+      <c r="G1026" s="46" t="n"/>
+      <c r="J1026" s="45" t="n"/>
+      <c r="K1026" s="45" t="n"/>
+      <c r="L1026" s="45" t="n"/>
+      <c r="W1026" s="45" t="n"/>
+      <c r="X1026" s="45" t="n"/>
+      <c r="Y1026" s="45" t="n"/>
+      <c r="Z1026" s="45" t="n"/>
+      <c r="AA1026" s="45" t="n"/>
+      <c r="AB1026" s="45" t="n"/>
+      <c r="AC1026" s="45" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO82"/>
